--- a/LightSourceCalibration.xlsx
+++ b/LightSourceCalibration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23700" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="53">
   <si>
     <t>This file contains power calibration data for microscopy light sources, collected via a Thorlabs PM100D Optical Power Meter.</t>
   </si>
@@ -173,6 +173,12 @@
   <si>
     <t>CFPa</t>
   </si>
+  <si>
+    <t>Cherry3</t>
+  </si>
+  <si>
+    <t>Tsap</t>
+  </si>
 </sst>
 </file>
 
@@ -207,12 +213,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -271,7 +278,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -337,7 +343,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$U$14:$U$39</c:f>
+              <c:f>Sheet1!$Y$14:$Y$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -424,7 +430,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$14:$V$39</c:f>
+              <c:f>Sheet1!$Z$14:$Z$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -546,7 +552,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$U$14:$U$39</c:f>
+              <c:f>Sheet1!$Y$14:$Y$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -633,7 +639,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$14:$X$39</c:f>
+              <c:f>Sheet1!$AB$14:$AB$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -729,7 +735,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -847,7 +852,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -928,7 +932,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2172,7 +2175,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$7</c:f>
+              <c:f>Sheet1!$H$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2292,7 +2295,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$12:$G$37</c:f>
+              <c:f>Sheet1!$H$12:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2801,7 +2804,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$7</c:f>
+              <c:f>Sheet1!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2921,7 +2924,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$12:$L$37</c:f>
+              <c:f>Sheet1!$P$12:$P$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3018,7 +3021,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$7</c:f>
+              <c:f>Sheet1!$Q$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3144,7 +3147,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$12:$M$37</c:f>
+              <c:f>Sheet1!$Q$12:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3241,7 +3244,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$7</c:f>
+              <c:f>Sheet1!$R$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3361,7 +3364,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$12:$N$37</c:f>
+              <c:f>Sheet1!$R$12:$R$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3458,7 +3461,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$7</c:f>
+              <c:f>Sheet1!$S$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3578,7 +3581,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$12:$O$37</c:f>
+              <c:f>Sheet1!$S$12:$S$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3675,7 +3678,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$7</c:f>
+              <c:f>Sheet1!$T$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3795,7 +3798,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$12:$P$37</c:f>
+              <c:f>Sheet1!$T$12:$T$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3892,7 +3895,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$7</c:f>
+              <c:f>Sheet1!$U$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4012,7 +4015,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$12:$Q$37</c:f>
+              <c:f>Sheet1!$U$12:$U$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -4460,7 +4463,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Z$10:$Z$11</c:f>
+              <c:f>Sheet1!$AD$10:$AD$11</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4583,7 +4586,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Z$12:$Z$37</c:f>
+              <c:f>Sheet1!$AD$12:$AD$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -4789,7 +4792,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$12:$P$37</c:f>
+              <c:f>Sheet1!$T$12:$T$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -5106,7 +5109,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5147,7 +5149,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AK$7</c:f>
+              <c:f>Sheet1!$AO$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5267,7 +5269,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AK$12:$AK$37</c:f>
+              <c:f>Sheet1!$AO$12:$AO$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -5364,7 +5366,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AL$7</c:f>
+              <c:f>Sheet1!$AP$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5490,7 +5492,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AL$12:$AL$37</c:f>
+              <c:f>Sheet1!$AP$12:$AP$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -5587,7 +5589,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AM$7</c:f>
+              <c:f>Sheet1!$AQ$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5707,7 +5709,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AM$12:$AM$37</c:f>
+              <c:f>Sheet1!$AQ$12:$AQ$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -5804,7 +5806,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AN$7</c:f>
+              <c:f>Sheet1!$AR$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5924,7 +5926,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AN$12:$AN$37</c:f>
+              <c:f>Sheet1!$AR$12:$AR$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -6080,7 +6082,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6198,7 +6199,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6279,7 +6279,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9130,13 +9129,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>319087</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -9166,7 +9165,7 @@
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
@@ -9190,13 +9189,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -9222,13 +9221,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
@@ -9252,13 +9251,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -9548,42 +9547,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS39"/>
+  <dimension ref="A1:AW39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="30" width="10.7109375" customWidth="1"/>
+    <col min="1" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="14" max="34" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AH3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AD4" t="s">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AH4" t="s">
         <v>34</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AO4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -9606,21 +9610,15 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="K5" t="s">
         <v>6</v>
       </c>
       <c r="P5" t="s">
@@ -9629,11 +9627,23 @@
       <c r="Q5" t="s">
         <v>6</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="R5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -9655,73 +9665,79 @@
       <c r="G6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="AC6" t="s">
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="AG6" t="s">
         <v>2</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AK6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AR6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AU6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -9741,25 +9757,19 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
         <v>50</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>20</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" t="s">
-        <v>24</v>
       </c>
       <c r="P7" t="s">
         <v>24</v>
@@ -9767,20 +9777,20 @@
       <c r="Q7" t="s">
         <v>24</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG7" t="s">
         <v>17</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>24</v>
       </c>
       <c r="AH7" t="s">
         <v>24</v>
@@ -9788,6 +9798,9 @@
       <c r="AI7" t="s">
         <v>24</v>
       </c>
+      <c r="AJ7" t="s">
+        <v>24</v>
+      </c>
       <c r="AK7" t="s">
         <v>24</v>
       </c>
@@ -9797,14 +9810,23 @@
       <c r="AM7" t="s">
         <v>24</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>24</v>
       </c>
       <c r="AP7" t="s">
         <v>24</v>
       </c>
+      <c r="AQ7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -9826,68 +9848,74 @@
       <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8">
         <v>2</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>4</v>
       </c>
-      <c r="L8">
+      <c r="P8">
         <v>1</v>
       </c>
-      <c r="M8">
+      <c r="Q8">
         <v>2</v>
       </c>
-      <c r="N8">
+      <c r="R8">
         <v>3</v>
       </c>
-      <c r="O8">
+      <c r="S8">
         <v>4</v>
       </c>
-      <c r="P8">
+      <c r="T8">
         <v>5</v>
       </c>
-      <c r="Q8">
+      <c r="U8">
         <v>6</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>31</v>
       </c>
-      <c r="AD8">
+      <c r="AH8">
         <v>1</v>
       </c>
-      <c r="AE8">
+      <c r="AI8">
         <v>2</v>
       </c>
-      <c r="AF8">
+      <c r="AJ8">
         <v>3</v>
       </c>
-      <c r="AG8">
+      <c r="AK8">
         <v>4</v>
       </c>
-      <c r="AH8">
+      <c r="AL8">
         <v>5</v>
       </c>
-      <c r="AI8">
+      <c r="AM8">
         <v>6</v>
       </c>
-      <c r="AK8">
+      <c r="AO8">
         <v>1</v>
       </c>
-      <c r="AL8">
+      <c r="AP8">
         <v>2</v>
       </c>
-      <c r="AM8">
+      <c r="AQ8">
         <v>3</v>
       </c>
-      <c r="AN8">
+      <c r="AR8">
         <v>4</v>
       </c>
-      <c r="AP8">
+      <c r="AT8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -9907,76 +9935,82 @@
         <v>545</v>
       </c>
       <c r="G9">
+        <v>586</v>
+      </c>
+      <c r="H9">
         <v>635</v>
       </c>
-      <c r="H9">
+      <c r="I9">
+        <v>405</v>
+      </c>
+      <c r="J9">
         <v>435</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>514</v>
       </c>
-      <c r="L9">
+      <c r="P9">
         <v>395</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
         <v>435</v>
       </c>
-      <c r="N9">
+      <c r="R9">
         <v>480</v>
       </c>
-      <c r="O9">
+      <c r="S9">
         <v>514</v>
       </c>
-      <c r="P9">
+      <c r="T9">
         <v>545</v>
       </c>
-      <c r="Q9">
+      <c r="U9">
         <v>635</v>
       </c>
-      <c r="U9" t="s">
+      <c r="Y9" t="s">
         <v>14</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>27</v>
       </c>
-      <c r="AD9">
+      <c r="AH9">
         <v>395</v>
       </c>
-      <c r="AE9">
+      <c r="AI9">
         <v>435</v>
       </c>
-      <c r="AF9">
+      <c r="AJ9">
         <v>480</v>
       </c>
-      <c r="AG9">
+      <c r="AK9">
         <v>514</v>
       </c>
-      <c r="AH9">
+      <c r="AL9">
         <v>545</v>
       </c>
-      <c r="AI9">
+      <c r="AM9">
         <v>635</v>
       </c>
-      <c r="AK9">
+      <c r="AO9">
         <v>395</v>
       </c>
-      <c r="AL9">
+      <c r="AP9">
         <v>435</v>
       </c>
-      <c r="AM9">
+      <c r="AQ9">
         <v>480</v>
       </c>
-      <c r="AN9">
+      <c r="AR9">
         <v>514</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AT9" t="s">
         <v>36</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AW9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -10004,16 +10038,10 @@
       <c r="I10" t="s">
         <v>30</v>
       </c>
-      <c r="L10" t="s">
+      <c r="J10" t="s">
         <v>30</v>
       </c>
-      <c r="M10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="K10" t="s">
         <v>30</v>
       </c>
       <c r="P10" t="s">
@@ -10022,23 +10050,23 @@
       <c r="Q10" t="s">
         <v>30</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="R10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD10" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>29</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>30</v>
       </c>
       <c r="AH10" t="s">
         <v>30</v>
@@ -10046,6 +10074,9 @@
       <c r="AI10" t="s">
         <v>30</v>
       </c>
+      <c r="AJ10" t="s">
+        <v>30</v>
+      </c>
       <c r="AK10" t="s">
         <v>30</v>
       </c>
@@ -10055,17 +10086,26 @@
       <c r="AM10" t="s">
         <v>30</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AO10" t="s">
         <v>30</v>
       </c>
       <c r="AP10" t="s">
         <v>30</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AQ10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -10093,16 +10133,10 @@
       <c r="I11" t="s">
         <v>4</v>
       </c>
-      <c r="L11" t="s">
+      <c r="J11" t="s">
         <v>4</v>
       </c>
-      <c r="M11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="K11" t="s">
         <v>4</v>
       </c>
       <c r="P11" t="s">
@@ -10111,23 +10145,23 @@
       <c r="Q11" t="s">
         <v>4</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="R11" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD11" t="s">
         <v>33</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AG11" t="s">
         <v>28</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>4</v>
       </c>
       <c r="AH11" t="s">
         <v>4</v>
@@ -10135,6 +10169,9 @@
       <c r="AI11" t="s">
         <v>4</v>
       </c>
+      <c r="AJ11" t="s">
+        <v>4</v>
+      </c>
       <c r="AK11" t="s">
         <v>4</v>
       </c>
@@ -10144,17 +10181,26 @@
       <c r="AM11" t="s">
         <v>4</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AO11" t="s">
         <v>4</v>
       </c>
       <c r="AP11" t="s">
         <v>4</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AQ11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -10173,71 +10219,65 @@
       <c r="F12" s="2">
         <v>0</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
+      <c r="G12" s="3">
+        <v>1.717E-4</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
+        <v>0.3468</v>
+      </c>
+      <c r="J12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2">
-        <f>AK12*$AS$12</f>
+      <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" s="2">
-        <f t="shared" ref="M12:O12" si="0">AL12*$AS$12</f>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2">
+        <f>AO12*$AW$12</f>
         <v>0</v>
       </c>
-      <c r="N12" s="2">
+      <c r="Q12" s="2">
+        <f t="shared" ref="Q12:S12" si="0">AP12*$AW$12</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="2">
+      <c r="S12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="2">
+      <c r="T12" s="2">
         <v>0</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="U12" s="2">
         <v>0</v>
       </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="U12" t="s">
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="Y12" t="s">
         <v>15</v>
       </c>
-      <c r="W12" t="s">
+      <c r="AA12" t="s">
         <v>16</v>
       </c>
-      <c r="X12" t="s">
+      <c r="AB12" t="s">
         <v>25</v>
       </c>
-      <c r="Z12">
+      <c r="AD12">
         <v>0</v>
       </c>
-      <c r="AA12" t="e">
-        <f>P12/Z12</f>
+      <c r="AE12" t="e">
+        <f t="shared" ref="AE12:AE24" si="1">T12/AD12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC12">
+      <c r="AG12">
         <v>1</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>0</v>
       </c>
       <c r="AH12" s="2">
         <v>0</v>
@@ -10245,8 +10285,10 @@
       <c r="AI12" s="2">
         <v>0</v>
       </c>
-      <c r="AK12">
-        <f>AP12*$AQ$12</f>
+      <c r="AJ12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AK12" s="2">
         <v>0</v>
       </c>
       <c r="AL12" s="2">
@@ -10255,25 +10297,35 @@
       <c r="AM12" s="2">
         <v>0</v>
       </c>
-      <c r="AN12" s="2">
+      <c r="AO12">
+        <f>AT12*$AU$12</f>
         <v>0</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" s="2">
         <v>0</v>
       </c>
-      <c r="AQ12">
-        <f>AVERAGE(AQ14,AQ16,AQ18,AQ20,AQ22,AQ27,AQ32,AQ37)</f>
+      <c r="AQ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <f>AVERAGE(AU14,AU16,AU18,AU20,AU22,AU27,AU32,AU37)</f>
         <v>1.1550448915286542</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AV12" t="s">
         <v>42</v>
       </c>
-      <c r="AS12">
-        <f>AVERAGE(AS13:AS37)</f>
+      <c r="AW12">
+        <f>AVERAGE(AW13:AW37)</f>
         <v>1.0341567482858394</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -10292,97 +10344,103 @@
       <c r="F13" s="2">
         <v>0.03</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
+        <v>1.306E-2</v>
+      </c>
+      <c r="H13" s="2">
         <v>0.26</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="3">
+        <v>1.008</v>
+      </c>
+      <c r="J13" s="2">
         <v>0.46</v>
       </c>
-      <c r="I13" s="2">
+      <c r="K13" s="2">
         <v>0.01</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <f t="shared" ref="L13:L37" si="1">AK13*$AS$12</f>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="2">
+        <f t="shared" ref="P13:P37" si="2">AO13*$AW$12</f>
         <v>0.53752386111634942</v>
       </c>
-      <c r="M13" s="2">
-        <f t="shared" ref="M13:M37" si="2">AL13*$AS$12</f>
+      <c r="Q13" s="2">
+        <f t="shared" ref="Q13:Q37" si="3">AP13*$AW$12</f>
         <v>0.66186031890293717</v>
       </c>
-      <c r="N13" s="2">
-        <f t="shared" ref="N13:N37" si="3">AM13*$AS$12</f>
+      <c r="R13" s="2">
+        <f t="shared" ref="R13:R37" si="4">AQ13*$AW$12</f>
         <v>1.4374778801173167</v>
       </c>
-      <c r="O13" s="2">
-        <f t="shared" ref="O13:O37" si="4">AN13*$AS$12</f>
+      <c r="S13" s="2">
+        <f t="shared" ref="S13:S37" si="5">AR13*$AW$12</f>
         <v>0.17580664720859271</v>
       </c>
-      <c r="P13" s="2">
+      <c r="T13" s="2">
         <v>0.45</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="U13" s="2">
         <v>0.33</v>
       </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="U13" t="s">
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="Y13" t="s">
         <v>3</v>
       </c>
-      <c r="V13" t="s">
+      <c r="Z13" t="s">
         <v>4</v>
       </c>
-      <c r="Z13">
+      <c r="AD13">
         <v>0.12</v>
       </c>
-      <c r="AA13">
-        <f>P13/Z13</f>
+      <c r="AE13">
+        <f t="shared" si="1"/>
         <v>3.7500000000000004</v>
       </c>
-      <c r="AC13">
+      <c r="AG13">
         <v>2</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AH13" s="2">
         <v>0.3</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AI13" s="2">
         <v>0.42</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="AJ13" s="2">
         <v>1.1599999999999999</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AK13" s="2">
         <v>0.23</v>
       </c>
-      <c r="AH13" s="2">
+      <c r="AL13" s="2">
         <v>0.45</v>
       </c>
-      <c r="AI13" s="2">
+      <c r="AM13" s="2">
         <v>0.33</v>
       </c>
-      <c r="AK13">
-        <f>AP13*$AQ$12</f>
+      <c r="AO13">
+        <f>AT13*$AU$12</f>
         <v>0.51977020118789441</v>
       </c>
-      <c r="AL13" s="2">
+      <c r="AP13" s="2">
         <v>0.64</v>
       </c>
-      <c r="AM13" s="2">
+      <c r="AQ13" s="2">
         <v>1.39</v>
       </c>
-      <c r="AN13" s="2">
+      <c r="AR13" s="2">
         <v>0.17</v>
       </c>
-      <c r="AP13">
+      <c r="AT13">
         <v>0.45</v>
       </c>
-      <c r="AS13">
-        <f t="shared" ref="AS13:AS37" si="5">AG13/AN13</f>
+      <c r="AW13">
+        <f t="shared" ref="AW13:AW37" si="6">AK13/AR13</f>
         <v>1.3529411764705881</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -10401,100 +10459,106 @@
       <c r="F14" s="2">
         <v>0.06</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
+        <v>2.9170000000000001E-2</v>
+      </c>
+      <c r="H14" s="2">
         <v>0.48</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="3">
+        <v>1.353</v>
+      </c>
+      <c r="J14" s="2">
         <v>1.2</v>
       </c>
-      <c r="I14" s="2">
+      <c r="K14" s="2">
         <v>0.03</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9824489108715474</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6443092297744846</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8511405794316524</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="5"/>
+        <v>0.4550289692457693</v>
+      </c>
+      <c r="T14" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>5.5</v>
+      </c>
+      <c r="AD14">
+        <v>0.26</v>
+      </c>
+      <c r="AE14">
         <f t="shared" si="1"/>
-        <v>0.9824489108715474</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6443092297744846</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8511405794316524</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" si="4"/>
-        <v>0.4550289692457693</v>
-      </c>
-      <c r="P14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AG14">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="AL14" s="2">
         <v>1.04</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="AM14" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>5.5</v>
-      </c>
-      <c r="Z14">
-        <v>0.26</v>
-      </c>
-      <c r="AA14">
-        <f>P14/Z14</f>
-        <v>4</v>
-      </c>
-      <c r="AC14">
-        <v>3</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>0.49</v>
-      </c>
-      <c r="AH14" s="2">
-        <v>1.04</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AK14" s="2">
+      <c r="AO14" s="2">
         <v>0.95</v>
       </c>
-      <c r="AL14" s="2">
+      <c r="AP14" s="2">
         <v>1.59</v>
       </c>
-      <c r="AM14" s="2">
+      <c r="AQ14" s="2">
         <v>1.79</v>
       </c>
-      <c r="AN14" s="2">
+      <c r="AR14" s="2">
         <v>0.44</v>
       </c>
-      <c r="AP14">
+      <c r="AT14">
         <v>0.83</v>
       </c>
-      <c r="AQ14">
-        <f t="shared" ref="AQ13:AQ37" si="6">AK14/AP14</f>
+      <c r="AU14">
+        <f t="shared" ref="AU14:AU37" si="7">AO14/AT14</f>
         <v>1.1445783132530121</v>
       </c>
-      <c r="AS14">
-        <f t="shared" si="5"/>
+      <c r="AW14">
+        <f t="shared" si="6"/>
         <v>1.1136363636363635</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -10513,97 +10577,103 @@
       <c r="F15" s="2">
         <v>0.15</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
+        <v>8.1409999999999996E-2</v>
+      </c>
+      <c r="H15" s="2">
         <v>0.82</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="3">
+        <v>1.827</v>
+      </c>
+      <c r="J15" s="2">
         <v>1.91</v>
       </c>
-      <c r="I15" s="2">
+      <c r="K15" s="2">
         <v>0.05</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2">
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5647916845831504</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="3"/>
+        <v>2.5957334381974566</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="4"/>
+        <v>2.4923177633688729</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="5"/>
+        <v>0.79630069618009636</v>
+      </c>
+      <c r="T15" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <v>31.1</v>
+      </c>
+      <c r="AD15">
+        <v>0.53</v>
+      </c>
+      <c r="AE15">
         <f t="shared" si="1"/>
-        <v>1.5647916845831504</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="2"/>
-        <v>2.5957334381974566</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="3"/>
-        <v>2.4923177633688729</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="4"/>
-        <v>0.79630069618009636</v>
-      </c>
-      <c r="P15" s="2">
+        <v>3.9433962264150937</v>
+      </c>
+      <c r="AG15">
+        <v>4</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>1.59</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="AL15" s="2">
         <v>2.09</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="AM15" s="2">
         <v>0.92</v>
       </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="U15">
-        <v>2</v>
-      </c>
-      <c r="V15">
-        <v>31.1</v>
-      </c>
-      <c r="Z15">
-        <v>0.53</v>
-      </c>
-      <c r="AA15">
-        <f>P15/Z15</f>
-        <v>3.9433962264150937</v>
-      </c>
-      <c r="AC15">
-        <v>4</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>1.59</v>
-      </c>
-      <c r="AF15" s="2">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="AH15" s="2">
-        <v>2.09</v>
-      </c>
-      <c r="AI15" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="AK15">
-        <f>AP15*$AQ$12</f>
+      <c r="AO15">
+        <f>AT15*$AU$12</f>
         <v>1.513108807902537</v>
       </c>
-      <c r="AL15" s="2">
+      <c r="AP15" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="AM15" s="2">
+      <c r="AQ15" s="2">
         <v>2.41</v>
       </c>
-      <c r="AN15" s="2">
+      <c r="AR15" s="2">
         <v>0.77</v>
       </c>
-      <c r="AP15">
+      <c r="AT15">
         <v>1.31</v>
       </c>
-      <c r="AS15">
-        <f t="shared" si="5"/>
+      <c r="AW15">
+        <f t="shared" si="6"/>
         <v>1.0779220779220779</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -10622,100 +10692,106 @@
       <c r="F16" s="2">
         <v>0.26</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H16" s="2">
         <v>1.01</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="3">
+        <v>2.1379999999999999</v>
+      </c>
+      <c r="J16" s="2">
         <v>2.37</v>
       </c>
-      <c r="I16" s="2">
+      <c r="K16" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9131899843288029</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="3"/>
+        <v>3.2162274871689602</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="4"/>
+        <v>2.9680298675803591</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0341567482858394</v>
+      </c>
+      <c r="T16" s="2">
+        <v>2.94</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="Y16">
+        <v>3</v>
+      </c>
+      <c r="Z16">
+        <v>43.8</v>
+      </c>
+      <c r="AD16">
+        <v>0.74</v>
+      </c>
+      <c r="AE16">
         <f t="shared" si="1"/>
-        <v>1.9131899843288029</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="2"/>
-        <v>3.2162274871689602</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="3"/>
-        <v>2.9680298675803591</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0341567482858394</v>
-      </c>
-      <c r="P16" s="2">
+        <v>3.9729729729729728</v>
+      </c>
+      <c r="AG16">
+        <v>5</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>2.38</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="AL16" s="2">
         <v>2.94</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="AM16" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="U16">
-        <v>3</v>
-      </c>
-      <c r="V16">
-        <v>43.8</v>
-      </c>
-      <c r="Z16">
-        <v>0.74</v>
-      </c>
-      <c r="AA16">
-        <f>P16/Z16</f>
-        <v>3.9729729729729728</v>
-      </c>
-      <c r="AC16">
-        <v>5</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>1.07</v>
-      </c>
-      <c r="AE16" s="2">
-        <v>1.97</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>2.38</v>
-      </c>
-      <c r="AG16" s="2">
+      <c r="AO16" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>2.87</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>1.62</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="7"/>
+        <v>1.1419753086419753</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="6"/>
         <v>1.05</v>
       </c>
-      <c r="AH16" s="2">
-        <v>2.94</v>
-      </c>
-      <c r="AI16" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AK16" s="2">
-        <v>1.85</v>
-      </c>
-      <c r="AL16" s="2">
-        <v>3.11</v>
-      </c>
-      <c r="AM16" s="2">
-        <v>2.87</v>
-      </c>
-      <c r="AN16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP16">
-        <v>1.62</v>
-      </c>
-      <c r="AQ16">
-        <f t="shared" si="6"/>
-        <v>1.1419753086419753</v>
-      </c>
-      <c r="AS16">
-        <f t="shared" si="5"/>
-        <v>1.05</v>
-      </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -10734,97 +10810,103 @@
       <c r="F17" s="2">
         <v>0.6</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
+        <v>0.3725</v>
+      </c>
+      <c r="H17" s="2">
         <v>1.45</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="3">
+        <v>2.9340000000000002</v>
+      </c>
+      <c r="J17" s="2">
         <v>3.53</v>
       </c>
-      <c r="I17" s="2">
+      <c r="K17" s="2">
         <v>0.12</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2">
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8548489512623894</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="3"/>
+        <v>4.819170447012012</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="4"/>
+        <v>4.1262854256604991</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6132845273259095</v>
+      </c>
+      <c r="T17" s="2">
+        <v>6.06</v>
+      </c>
+      <c r="U17" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="Y17">
+        <v>4</v>
+      </c>
+      <c r="Z17">
+        <v>62.5</v>
+      </c>
+      <c r="AD17">
+        <v>1.53</v>
+      </c>
+      <c r="AE17">
         <f t="shared" si="1"/>
-        <v>2.8548489512623894</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="2"/>
-        <v>4.819170447012012</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="3"/>
-        <v>4.1262854256604991</v>
-      </c>
-      <c r="O17" s="2">
-        <f t="shared" si="4"/>
-        <v>1.6132845273259095</v>
-      </c>
-      <c r="P17" s="2">
+        <v>3.9607843137254899</v>
+      </c>
+      <c r="AG17">
+        <v>7</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>1.57</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>2.96</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="AL17" s="2">
         <v>6.06</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="AM17" s="2">
         <v>1.65</v>
       </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="U17">
-        <v>4</v>
-      </c>
-      <c r="V17">
-        <v>62.5</v>
-      </c>
-      <c r="Z17">
-        <v>1.53</v>
-      </c>
-      <c r="AA17">
-        <f>P17/Z17</f>
-        <v>3.9607843137254899</v>
-      </c>
-      <c r="AC17">
-        <v>7</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>1.57</v>
-      </c>
-      <c r="AE17" s="2">
-        <v>2.96</v>
-      </c>
-      <c r="AF17" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="AG17" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="AH17" s="2">
-        <v>6.06</v>
-      </c>
-      <c r="AI17" s="2">
-        <v>1.65</v>
-      </c>
-      <c r="AK17">
-        <f>AP17*$AQ$12</f>
+      <c r="AO17">
+        <f>AT17*$AU$12</f>
         <v>2.7605572907534839</v>
       </c>
-      <c r="AL17" s="2">
+      <c r="AP17" s="2">
         <v>4.66</v>
       </c>
-      <c r="AM17" s="2">
+      <c r="AQ17" s="2">
         <v>3.99</v>
       </c>
-      <c r="AN17" s="2">
+      <c r="AR17" s="2">
         <v>1.56</v>
       </c>
-      <c r="AP17">
+      <c r="AT17">
         <v>2.39</v>
       </c>
-      <c r="AS17">
-        <f t="shared" si="5"/>
+      <c r="AW17">
+        <f t="shared" si="6"/>
         <v>1.0256410256410258</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -10843,107 +10925,113 @@
       <c r="F18" s="2">
         <v>1.42</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
+        <v>0.85229999999999995</v>
+      </c>
+      <c r="H18" s="2">
         <v>2.16</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="3">
+        <v>4.149</v>
+      </c>
+      <c r="J18" s="2">
         <v>5.19</v>
       </c>
-      <c r="I18" s="2">
+      <c r="K18" s="2">
         <v>0.22</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2">
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="2">
+        <f t="shared" si="2"/>
+        <v>4.2193595330062248</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="3"/>
+        <v>7.1563646981380087</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="4"/>
+        <v>5.9257181676778599</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="5"/>
+        <v>2.4923177633688729</v>
+      </c>
+      <c r="T18" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="U18" s="2">
+        <v>2.42</v>
+      </c>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="Y18">
+        <v>5</v>
+      </c>
+      <c r="Z18">
+        <v>75.7</v>
+      </c>
+      <c r="AA18">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="AB18">
+        <f>AA18*($Z$18/$AA$18)</f>
+        <v>75.7</v>
+      </c>
+      <c r="AD18">
+        <v>2.8</v>
+      </c>
+      <c r="AE18">
         <f t="shared" si="1"/>
-        <v>4.2193595330062248</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="2"/>
-        <v>7.1563646981380087</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" si="3"/>
-        <v>5.9257181676778599</v>
-      </c>
-      <c r="O18" s="2">
-        <f t="shared" si="4"/>
-        <v>2.4923177633688729</v>
-      </c>
-      <c r="P18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AG18">
+        <v>10</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>4.41</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>2.39</v>
+      </c>
+      <c r="AL18" s="2">
         <v>11.2</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="AM18" s="2">
         <v>2.42</v>
       </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="U18">
-        <v>5</v>
-      </c>
-      <c r="V18">
-        <v>75.7</v>
-      </c>
-      <c r="W18">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="X18">
-        <f>W18*($V$18/$W$18)</f>
-        <v>75.7</v>
-      </c>
-      <c r="Z18">
-        <v>2.8</v>
-      </c>
-      <c r="AA18">
-        <f>P18/Z18</f>
-        <v>4</v>
-      </c>
-      <c r="AC18">
-        <v>10</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="AE18" s="2">
-        <v>4.41</v>
-      </c>
-      <c r="AF18" s="2">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="AH18" s="2">
-        <v>11.2</v>
-      </c>
-      <c r="AI18" s="2">
-        <v>2.42</v>
-      </c>
-      <c r="AK18" s="2">
+      <c r="AO18" s="2">
         <v>4.08</v>
       </c>
-      <c r="AL18" s="2">
+      <c r="AP18" s="2">
         <v>6.92</v>
       </c>
-      <c r="AM18" s="2">
+      <c r="AQ18" s="2">
         <v>5.73</v>
       </c>
-      <c r="AN18" s="2">
+      <c r="AR18" s="2">
         <v>2.41</v>
       </c>
-      <c r="AP18">
+      <c r="AT18">
         <v>3.57</v>
       </c>
-      <c r="AQ18">
+      <c r="AU18">
+        <f t="shared" si="7"/>
+        <v>1.142857142857143</v>
+      </c>
+      <c r="AW18">
         <f t="shared" si="6"/>
-        <v>1.142857142857143</v>
-      </c>
-      <c r="AS18">
-        <f t="shared" si="5"/>
         <v>0.99170124481327804</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -10962,97 +11050,103 @@
       <c r="F19" s="2">
         <v>1.96</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="H19" s="2">
         <v>2.59</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="3">
+        <v>4.8860000000000001</v>
+      </c>
+      <c r="J19" s="2">
         <v>6.18</v>
       </c>
-      <c r="I19" s="2">
+      <c r="K19" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1482840920254791</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="3"/>
+        <v>8.5835010107724674</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="4"/>
+        <v>7.0219243208608493</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="5"/>
+        <v>2.9163220301660671</v>
+      </c>
+      <c r="T19" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="U19" s="2">
+        <v>2.91</v>
+      </c>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="Y19">
+        <v>7</v>
+      </c>
+      <c r="Z19">
+        <v>111</v>
+      </c>
+      <c r="AD19">
+        <v>3.58</v>
+      </c>
+      <c r="AE19">
         <f t="shared" si="1"/>
-        <v>5.1482840920254791</v>
-      </c>
-      <c r="M19" s="2">
-        <f t="shared" si="2"/>
-        <v>8.5835010107724674</v>
-      </c>
-      <c r="N19" s="2">
-        <f t="shared" si="3"/>
-        <v>7.0219243208608493</v>
-      </c>
-      <c r="O19" s="2">
-        <f t="shared" si="4"/>
-        <v>2.9163220301660671</v>
-      </c>
-      <c r="P19" s="2">
+        <v>3.994413407821229</v>
+      </c>
+      <c r="AG19">
+        <v>12</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>2.83</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>5.31</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="AL19" s="2">
         <v>14.3</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="AM19" s="2">
         <v>2.91</v>
       </c>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="U19">
-        <v>7</v>
-      </c>
-      <c r="V19">
-        <v>111</v>
-      </c>
-      <c r="Z19">
-        <v>3.58</v>
-      </c>
-      <c r="AA19">
-        <f>P19/Z19</f>
-        <v>3.994413407821229</v>
-      </c>
-      <c r="AC19">
-        <v>12</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>2.83</v>
-      </c>
-      <c r="AE19" s="2">
-        <v>5.31</v>
-      </c>
-      <c r="AF19" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="AG19" s="2">
-        <v>2.88</v>
-      </c>
-      <c r="AH19" s="2">
-        <v>14.3</v>
-      </c>
-      <c r="AI19" s="2">
-        <v>2.91</v>
-      </c>
-      <c r="AK19">
-        <f>AP19*$AQ$12</f>
+      <c r="AO19">
+        <f>AT19*$AU$12</f>
         <v>4.9782434824884989</v>
       </c>
-      <c r="AL19" s="2">
+      <c r="AP19" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AM19" s="2">
+      <c r="AQ19" s="2">
         <v>6.79</v>
       </c>
-      <c r="AN19" s="2">
+      <c r="AR19" s="2">
         <v>2.82</v>
       </c>
-      <c r="AP19">
+      <c r="AT19">
         <v>4.3099999999999996</v>
       </c>
-      <c r="AS19">
-        <f t="shared" si="5"/>
+      <c r="AW19">
+        <f t="shared" si="6"/>
         <v>1.0212765957446808</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -11071,107 +11165,113 @@
       <c r="F20" s="2">
         <v>2.81</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3">
+        <v>1.746</v>
+      </c>
+      <c r="H20" s="2">
         <v>3.31</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="3">
+        <v>6.0579999999999998</v>
+      </c>
+      <c r="J20" s="2">
         <v>7.66</v>
       </c>
-      <c r="I20" s="2">
+      <c r="K20" s="2">
         <v>0.39</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2">
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="2">
+        <f t="shared" si="2"/>
+        <v>6.4945043792350718</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" si="3"/>
+        <v>10.755230182172729</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="4"/>
+        <v>8.7386245230153428</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" si="5"/>
+        <v>3.7022811588633049</v>
+      </c>
+      <c r="T20" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="U20" s="2">
+        <v>3.68</v>
+      </c>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="Y20">
+        <v>10</v>
+      </c>
+      <c r="Z20">
+        <v>167</v>
+      </c>
+      <c r="AA20">
+        <v>1.02</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" ref="AB20:AB39" si="8">AA20*($Z$18/$AA$18)</f>
+        <v>138.62477558348294</v>
+      </c>
+      <c r="AD20">
+        <v>4.8</v>
+      </c>
+      <c r="AE20">
         <f t="shared" si="1"/>
-        <v>6.4945043792350718</v>
-      </c>
-      <c r="M20" s="2">
-        <f t="shared" si="2"/>
-        <v>10.755230182172729</v>
-      </c>
-      <c r="N20" s="2">
-        <f t="shared" si="3"/>
-        <v>8.7386245230153428</v>
-      </c>
-      <c r="O20" s="2">
-        <f t="shared" si="4"/>
-        <v>3.7022811588633049</v>
-      </c>
-      <c r="P20" s="2">
+        <v>4</v>
+      </c>
+      <c r="AG20">
+        <v>15</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>6.67</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>6.94</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>3.57</v>
+      </c>
+      <c r="AL20" s="2">
         <v>19.2</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="AM20" s="2">
         <v>3.68</v>
       </c>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="U20">
-        <v>10</v>
-      </c>
-      <c r="V20">
-        <v>167</v>
-      </c>
-      <c r="W20">
-        <v>1.02</v>
-      </c>
-      <c r="X20">
-        <f t="shared" ref="X19:X39" si="7">W20*($V$18/$W$18)</f>
-        <v>138.62477558348294</v>
-      </c>
-      <c r="Z20">
-        <v>4.8</v>
-      </c>
-      <c r="AA20">
-        <f>P20/Z20</f>
-        <v>4</v>
-      </c>
-      <c r="AC20">
-        <v>15</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="AE20" s="2">
-        <v>6.67</v>
-      </c>
-      <c r="AF20" s="2">
-        <v>6.94</v>
-      </c>
-      <c r="AG20" s="2">
-        <v>3.57</v>
-      </c>
-      <c r="AH20" s="2">
-        <v>19.2</v>
-      </c>
-      <c r="AI20" s="2">
-        <v>3.68</v>
-      </c>
-      <c r="AK20" s="2">
+      <c r="AO20" s="2">
         <v>6.28</v>
       </c>
-      <c r="AL20" s="2">
+      <c r="AP20" s="2">
         <v>10.4</v>
       </c>
-      <c r="AM20" s="2">
+      <c r="AQ20" s="2">
         <v>8.4499999999999993</v>
       </c>
-      <c r="AN20" s="2">
+      <c r="AR20" s="2">
         <v>3.58</v>
       </c>
-      <c r="AP20">
+      <c r="AT20">
         <v>5.28</v>
       </c>
-      <c r="AQ20">
+      <c r="AU20">
+        <f t="shared" si="7"/>
+        <v>1.1893939393939394</v>
+      </c>
+      <c r="AW20">
         <f t="shared" si="6"/>
-        <v>1.1893939393939394</v>
-      </c>
-      <c r="AS20">
-        <f t="shared" si="5"/>
         <v>0.9972067039106145</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11190,97 +11290,103 @@
       <c r="F21" s="2">
         <v>4.07</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="3">
+        <v>2.5720000000000001</v>
+      </c>
+      <c r="H21" s="2">
         <v>4.3600000000000003</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="3">
+        <v>7.7610000000000001</v>
+      </c>
+      <c r="J21" s="2">
         <v>9.7200000000000006</v>
       </c>
-      <c r="I21" s="2">
+      <c r="K21" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2">
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="2">
+        <f t="shared" si="2"/>
+        <v>8.588436803170115</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="3"/>
+        <v>13.754284752201665</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="4"/>
+        <v>11.168892881487066</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" si="5"/>
+        <v>4.6226806648377021</v>
+      </c>
+      <c r="T21" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="U21" s="2">
+        <v>4.84</v>
+      </c>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="Y21">
+        <v>12</v>
+      </c>
+      <c r="Z21">
+        <v>204</v>
+      </c>
+      <c r="AD21">
+        <v>6.58</v>
+      </c>
+      <c r="AE21">
         <f t="shared" si="1"/>
-        <v>8.588436803170115</v>
-      </c>
-      <c r="M21" s="2">
-        <f t="shared" si="2"/>
-        <v>13.754284752201665</v>
-      </c>
-      <c r="N21" s="2">
-        <f t="shared" si="3"/>
-        <v>11.168892881487066</v>
-      </c>
-      <c r="O21" s="2">
-        <f t="shared" si="4"/>
-        <v>4.6226806648377021</v>
-      </c>
-      <c r="P21" s="2">
+        <v>3.9969604863221884</v>
+      </c>
+      <c r="AG21">
+        <v>20</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>4.72</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="AJ21" s="2">
+        <v>8.82</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AL21" s="2">
         <v>26.3</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="AM21" s="2">
         <v>4.84</v>
       </c>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="U21">
-        <v>12</v>
-      </c>
-      <c r="V21">
-        <v>204</v>
-      </c>
-      <c r="Z21">
-        <v>6.58</v>
-      </c>
-      <c r="AA21">
-        <f>P21/Z21</f>
-        <v>3.9969604863221884</v>
-      </c>
-      <c r="AC21">
-        <v>20</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>4.72</v>
-      </c>
-      <c r="AE21" s="2">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="AF21" s="2">
-        <v>8.82</v>
-      </c>
-      <c r="AG21" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="AH21" s="2">
-        <v>26.3</v>
-      </c>
-      <c r="AI21" s="2">
-        <v>4.84</v>
-      </c>
-      <c r="AK21">
-        <f>AP21*$AQ$12</f>
+      <c r="AO21">
+        <f>AT21*$AU$12</f>
         <v>8.3047727700910237</v>
       </c>
-      <c r="AL21" s="2">
+      <c r="AP21" s="2">
         <v>13.3</v>
       </c>
-      <c r="AM21" s="2">
+      <c r="AQ21" s="2">
         <v>10.8</v>
       </c>
-      <c r="AN21" s="2">
+      <c r="AR21" s="2">
         <v>4.47</v>
       </c>
-      <c r="AP21">
+      <c r="AT21">
         <v>7.19</v>
       </c>
-      <c r="AS21">
-        <f t="shared" si="5"/>
+      <c r="AW21">
+        <f t="shared" si="6"/>
         <v>1.0067114093959733</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>25</v>
       </c>
@@ -11299,107 +11405,113 @@
       <c r="F22" s="2">
         <v>5.43</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="3">
+        <v>3.4420000000000002</v>
+      </c>
+      <c r="H22" s="2">
         <v>5.5</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="3">
+        <v>9.5359999999999996</v>
+      </c>
+      <c r="J22" s="2">
         <v>11.8</v>
       </c>
-      <c r="I22" s="2">
+      <c r="K22" s="2">
         <v>0.71</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2">
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="2">
+        <f t="shared" si="2"/>
+        <v>10.651814507344147</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="3"/>
+        <v>16.960170671887763</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="4"/>
+        <v>13.650869077373079</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="5"/>
+        <v>5.5430801708120994</v>
+      </c>
+      <c r="T22" s="2">
+        <v>33.4</v>
+      </c>
+      <c r="U22" s="2">
+        <v>6.09</v>
+      </c>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="Y22">
+        <v>15</v>
+      </c>
+      <c r="Z22">
+        <v>263</v>
+      </c>
+      <c r="AA22">
+        <v>1.46</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="8"/>
+        <v>198.42369838420106</v>
+      </c>
+      <c r="AD22">
+        <v>8.44</v>
+      </c>
+      <c r="AE22">
         <f t="shared" si="1"/>
-        <v>10.651814507344147</v>
-      </c>
-      <c r="M22" s="2">
-        <f t="shared" si="2"/>
-        <v>16.960170671887763</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" si="3"/>
-        <v>13.650869077373079</v>
-      </c>
-      <c r="O22" s="2">
-        <f t="shared" si="4"/>
-        <v>5.5430801708120994</v>
-      </c>
-      <c r="P22" s="2">
+        <v>3.9573459715639809</v>
+      </c>
+      <c r="AG22">
+        <v>25</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>5.89</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="AJ22" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="AK22" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="AL22" s="2">
         <v>33.4</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="AM22" s="2">
         <v>6.09</v>
       </c>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="U22">
-        <v>15</v>
-      </c>
-      <c r="V22">
-        <v>263</v>
-      </c>
-      <c r="W22">
-        <v>1.46</v>
-      </c>
-      <c r="X22">
+      <c r="AO22" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AQ22" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="AR22" s="2">
+        <v>5.36</v>
+      </c>
+      <c r="AT22">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="AU22">
         <f t="shared" si="7"/>
-        <v>198.42369838420106</v>
-      </c>
-      <c r="Z22">
-        <v>8.44</v>
-      </c>
-      <c r="AA22">
-        <f>P22/Z22</f>
-        <v>3.9573459715639809</v>
-      </c>
-      <c r="AC22">
-        <v>25</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>5.89</v>
-      </c>
-      <c r="AE22" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="AF22" s="2">
-        <v>10.8</v>
-      </c>
-      <c r="AG22" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="AH22" s="2">
-        <v>33.4</v>
-      </c>
-      <c r="AI22" s="2">
-        <v>6.09</v>
-      </c>
-      <c r="AK22" s="2">
-        <v>10.3</v>
-      </c>
-      <c r="AL22" s="2">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="AM22" s="2">
-        <v>13.2</v>
-      </c>
-      <c r="AN22" s="2">
-        <v>5.36</v>
-      </c>
-      <c r="AP22">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="AQ22">
+        <v>1.1482720178372352</v>
+      </c>
+      <c r="AW22">
         <f t="shared" si="6"/>
-        <v>1.1482720178372352</v>
-      </c>
-      <c r="AS22">
-        <f t="shared" si="5"/>
         <v>1.0074626865671641</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>30</v>
       </c>
@@ -11418,97 +11530,103 @@
       <c r="F23" s="2">
         <v>6.72</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="3">
+        <v>4.2889999999999997</v>
+      </c>
+      <c r="H23" s="2">
         <v>6.62</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="3">
+        <v>11.23</v>
+      </c>
+      <c r="J23" s="2">
         <v>13.7</v>
       </c>
-      <c r="I23" s="2">
+      <c r="K23" s="2">
         <v>0.88</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2">
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="2">
+        <f t="shared" si="2"/>
+        <v>12.781122919877639</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="3"/>
+        <v>19.959225241916702</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="4"/>
+        <v>15.926013923601927</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" si="5"/>
+        <v>6.3600640019579124</v>
+      </c>
+      <c r="T23" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="U23" s="2">
+        <v>7.33</v>
+      </c>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="Y23">
+        <v>20</v>
+      </c>
+      <c r="Z23">
+        <v>352</v>
+      </c>
+      <c r="AD23">
+        <v>10.3</v>
+      </c>
+      <c r="AE23">
         <f t="shared" si="1"/>
-        <v>12.781122919877639</v>
-      </c>
-      <c r="M23" s="2">
-        <f t="shared" si="2"/>
-        <v>19.959225241916702</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" si="3"/>
-        <v>15.926013923601927</v>
-      </c>
-      <c r="O23" s="2">
-        <f t="shared" si="4"/>
-        <v>6.3600640019579124</v>
-      </c>
-      <c r="P23" s="2">
+        <v>3.9320388349514559</v>
+      </c>
+      <c r="AG23">
+        <v>30</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>7.01</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="AJ23" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="AK23" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="AL23" s="2">
         <v>40.5</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="AM23" s="2">
         <v>7.33</v>
       </c>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="U23">
-        <v>20</v>
-      </c>
-      <c r="V23">
-        <v>352</v>
-      </c>
-      <c r="Z23">
-        <v>10.3</v>
-      </c>
-      <c r="AA23">
-        <f>P23/Z23</f>
-        <v>3.9320388349514559</v>
-      </c>
-      <c r="AC23">
-        <v>30</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>7.01</v>
-      </c>
-      <c r="AE23" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="AF23" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="AG23" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="AH23" s="2">
-        <v>40.5</v>
-      </c>
-      <c r="AI23" s="2">
-        <v>7.33</v>
-      </c>
-      <c r="AK23">
-        <f>AP23*$AQ$12</f>
+      <c r="AO23">
+        <f>AT23*$AU$12</f>
         <v>12.358980339356599</v>
       </c>
-      <c r="AL23" s="2">
+      <c r="AP23" s="2">
         <v>19.3</v>
       </c>
-      <c r="AM23" s="2">
+      <c r="AQ23" s="2">
         <v>15.4</v>
       </c>
-      <c r="AN23" s="2">
+      <c r="AR23" s="2">
         <v>6.15</v>
       </c>
-      <c r="AP23">
+      <c r="AT23">
         <v>10.7</v>
       </c>
-      <c r="AS23">
-        <f t="shared" si="5"/>
+      <c r="AW23">
+        <f t="shared" si="6"/>
         <v>1.0081300813008129</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>35</v>
       </c>
@@ -11527,104 +11645,110 @@
       <c r="F24" s="2">
         <v>7.99</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="3">
+        <v>5.109</v>
+      </c>
+      <c r="H24" s="2">
         <v>7.72</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="3">
+        <v>12.84</v>
+      </c>
+      <c r="J24" s="2">
         <v>15.4</v>
       </c>
-      <c r="I24" s="2">
+      <c r="K24" s="2">
         <v>1.04</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2">
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="2">
+        <f t="shared" si="2"/>
+        <v>14.692318870513551</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="3"/>
+        <v>22.751448462288465</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="4"/>
+        <v>18.201158769830773</v>
+      </c>
+      <c r="S24" s="2">
+        <f t="shared" si="5"/>
+        <v>7.0943152932408582</v>
+      </c>
+      <c r="T24" s="2">
+        <v>47</v>
+      </c>
+      <c r="U24" s="2">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="Y24">
+        <v>25</v>
+      </c>
+      <c r="Z24">
+        <v>443</v>
+      </c>
+      <c r="AA24">
+        <v>2.17</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="8"/>
+        <v>294.9174147217235</v>
+      </c>
+      <c r="AD24">
+        <v>12</v>
+      </c>
+      <c r="AE24">
         <f t="shared" si="1"/>
-        <v>14.692318870513551</v>
-      </c>
-      <c r="M24" s="2">
-        <f t="shared" si="2"/>
-        <v>22.751448462288465</v>
-      </c>
-      <c r="N24" s="2">
-        <f t="shared" si="3"/>
-        <v>18.201158769830773</v>
-      </c>
-      <c r="O24" s="2">
-        <f t="shared" si="4"/>
-        <v>7.0943152932408582</v>
-      </c>
-      <c r="P24" s="2">
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="AG24">
+        <v>35</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="AJ24" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="AK24" s="2">
+        <v>6.93</v>
+      </c>
+      <c r="AL24" s="2">
         <v>47</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="AM24" s="2">
         <v>8.5299999999999994</v>
       </c>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="U24">
-        <v>25</v>
-      </c>
-      <c r="V24">
-        <v>443</v>
-      </c>
-      <c r="W24">
-        <v>2.17</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="7"/>
-        <v>294.9174147217235</v>
-      </c>
-      <c r="Z24">
-        <v>12</v>
-      </c>
-      <c r="AA24">
-        <f>P24/Z24</f>
-        <v>3.9166666666666665</v>
-      </c>
-      <c r="AC24">
-        <v>35</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="AE24" s="2">
-        <v>14.5</v>
-      </c>
-      <c r="AF24" s="2">
-        <v>14.3</v>
-      </c>
-      <c r="AG24" s="2">
-        <v>6.93</v>
-      </c>
-      <c r="AH24" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI24" s="2">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="AK24">
-        <f t="shared" ref="AK24:AK31" si="8">AP24*$AQ$12</f>
+      <c r="AO24">
+        <f t="shared" ref="AO24:AO31" si="9">AT24*$AU$12</f>
         <v>14.207052165802448</v>
       </c>
-      <c r="AL24" s="2">
+      <c r="AP24" s="2">
         <v>22</v>
       </c>
-      <c r="AM24" s="2">
+      <c r="AQ24" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="AN24" s="2">
+      <c r="AR24" s="2">
         <v>6.86</v>
       </c>
-      <c r="AP24">
+      <c r="AT24">
         <v>12.3</v>
       </c>
-      <c r="AS24">
-        <f t="shared" si="5"/>
+      <c r="AW24">
+        <f t="shared" si="6"/>
         <v>1.010204081632653</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>40</v>
       </c>
@@ -11643,95 +11767,101 @@
       <c r="F25" s="2">
         <v>9.14</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="3">
+        <v>5.8520000000000003</v>
+      </c>
+      <c r="H25" s="2">
         <v>8.73</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="3">
+        <v>14.33</v>
+      </c>
+      <c r="J25" s="2">
         <v>16.899999999999999</v>
       </c>
-      <c r="I25" s="2">
+      <c r="K25" s="2">
         <v>1.18</v>
       </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2">
-        <f t="shared" si="1"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="2">
+        <f t="shared" si="2"/>
         <v>16.484065074234714</v>
       </c>
-      <c r="M25" s="2">
-        <f t="shared" si="2"/>
+      <c r="Q25" s="2">
+        <f t="shared" si="3"/>
         <v>25.233424658174478</v>
       </c>
-      <c r="N25" s="2">
-        <f t="shared" si="3"/>
+      <c r="R25" s="2">
+        <f t="shared" si="4"/>
         <v>20.166056591573867</v>
       </c>
-      <c r="O25" s="2">
-        <f t="shared" si="4"/>
+      <c r="S25" s="2">
+        <f t="shared" si="5"/>
         <v>7.6631015047980702</v>
       </c>
-      <c r="P25" s="2">
-        <f>Z25*4</f>
+      <c r="T25" s="2">
+        <f>AD25*4</f>
         <v>54.4</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="U25" s="2">
         <v>9.64</v>
       </c>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="U25">
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="Y25">
         <v>30</v>
       </c>
-      <c r="V25">
+      <c r="Z25">
         <v>533</v>
       </c>
-      <c r="Z25">
+      <c r="AD25">
         <v>13.6</v>
       </c>
-      <c r="AC25">
+      <c r="AG25">
         <v>40</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AH25" s="2">
         <v>9.08</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AI25" s="2">
         <v>16.100000000000001</v>
       </c>
-      <c r="AF25" s="2">
+      <c r="AJ25" s="2">
         <v>15.8</v>
       </c>
-      <c r="AG25" s="2">
+      <c r="AK25" s="2">
         <v>7.55</v>
       </c>
-      <c r="AH25" s="2">
-        <f>AQ25*4</f>
+      <c r="AL25" s="2">
+        <f>AU25*4</f>
         <v>0</v>
       </c>
-      <c r="AI25" s="2">
+      <c r="AM25" s="2">
         <v>9.64</v>
       </c>
-      <c r="AK25">
-        <f t="shared" si="8"/>
+      <c r="AO25">
+        <f t="shared" si="9"/>
         <v>15.939619503095429</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AP25" s="2">
         <v>24.4</v>
       </c>
-      <c r="AM25" s="2">
+      <c r="AQ25" s="2">
         <v>19.5</v>
       </c>
-      <c r="AN25" s="2">
+      <c r="AR25" s="2">
         <v>7.41</v>
       </c>
-      <c r="AP25">
+      <c r="AT25">
         <v>13.8</v>
       </c>
-      <c r="AS25">
-        <f t="shared" si="5"/>
+      <c r="AW25">
+        <f t="shared" si="6"/>
         <v>1.0188933873144399</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>45</v>
       </c>
@@ -11750,102 +11880,108 @@
       <c r="F26" s="2">
         <v>10.4</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="3">
+        <v>6.6340000000000003</v>
+      </c>
+      <c r="H26" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="3">
+        <v>15.86</v>
+      </c>
+      <c r="J26" s="2">
         <v>18.5</v>
       </c>
-      <c r="I26" s="2">
+      <c r="K26" s="2">
         <v>1.32</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2">
-        <f t="shared" si="1"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="2">
+        <f t="shared" si="2"/>
         <v>18.275811277955878</v>
       </c>
-      <c r="M26" s="2">
-        <f t="shared" si="2"/>
+      <c r="Q26" s="2">
+        <f t="shared" si="3"/>
         <v>27.715400854060494</v>
       </c>
-      <c r="N26" s="2">
-        <f t="shared" si="3"/>
+      <c r="R26" s="2">
+        <f t="shared" si="4"/>
         <v>22.13095441331696</v>
       </c>
-      <c r="O26" s="2">
-        <f t="shared" si="4"/>
+      <c r="S26" s="2">
+        <f t="shared" si="5"/>
         <v>8.3146202562181468</v>
       </c>
-      <c r="P26" s="2">
-        <f t="shared" ref="P26:P37" si="9">Z26*4</f>
+      <c r="T26" s="2">
+        <f t="shared" ref="T26:T37" si="10">AD26*4</f>
         <v>61.2</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="U26" s="2">
         <v>10.8</v>
       </c>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="U26">
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="Y26">
         <v>35</v>
       </c>
-      <c r="V26">
+      <c r="Z26">
         <v>618</v>
       </c>
-      <c r="W26">
+      <c r="AA26">
         <v>2.8</v>
       </c>
-      <c r="X26">
-        <f t="shared" si="7"/>
+      <c r="AB26">
+        <f t="shared" si="8"/>
         <v>380.53859964093351</v>
       </c>
-      <c r="Z26">
+      <c r="AD26">
         <v>15.3</v>
       </c>
-      <c r="AC26">
+      <c r="AG26">
         <v>45</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AH26" s="2">
         <v>10.1</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AI26" s="2">
         <v>17.8</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AJ26" s="2">
         <v>17.3</v>
       </c>
-      <c r="AG26" s="2">
+      <c r="AK26" s="2">
         <v>8.17</v>
       </c>
-      <c r="AH26" s="2">
-        <f t="shared" ref="AH26:AH37" si="10">AQ26*4</f>
+      <c r="AL26" s="2">
+        <f t="shared" ref="AL26:AL37" si="11">AU26*4</f>
         <v>0</v>
       </c>
-      <c r="AI26" s="2">
+      <c r="AM26" s="2">
         <v>10.8</v>
       </c>
-      <c r="AK26">
-        <f t="shared" si="8"/>
+      <c r="AO26">
+        <f t="shared" si="9"/>
         <v>17.672186840388409</v>
       </c>
-      <c r="AL26" s="2">
+      <c r="AP26" s="2">
         <v>26.8</v>
       </c>
-      <c r="AM26" s="2">
+      <c r="AQ26" s="2">
         <v>21.4</v>
       </c>
-      <c r="AN26" s="2">
+      <c r="AR26" s="2">
         <v>8.0399999999999991</v>
       </c>
-      <c r="AP26">
+      <c r="AT26">
         <v>15.3</v>
       </c>
-      <c r="AS26">
-        <f t="shared" si="5"/>
+      <c r="AW26">
+        <f t="shared" si="6"/>
         <v>1.0161691542288558</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>50</v>
       </c>
@@ -11864,98 +12000,104 @@
       <c r="F27" s="2">
         <v>11.5</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="3">
+        <v>7.3949999999999996</v>
+      </c>
+      <c r="H27" s="2">
         <v>10.9</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="3">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="J27" s="2">
         <v>19.899999999999999</v>
       </c>
-      <c r="I27" s="2">
+      <c r="K27" s="2">
         <v>1.46</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2">
-        <f t="shared" si="1"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="2">
+        <f t="shared" si="2"/>
         <v>20.062640916745281</v>
       </c>
-      <c r="M27" s="2">
-        <f t="shared" si="2"/>
+      <c r="Q27" s="2">
+        <f t="shared" si="3"/>
         <v>30.19737704994651</v>
       </c>
-      <c r="N27" s="2">
-        <f t="shared" si="3"/>
+      <c r="R27" s="2">
+        <f t="shared" si="4"/>
         <v>24.095852235060057</v>
       </c>
-      <c r="O27" s="2">
-        <f t="shared" si="4"/>
+      <c r="S27" s="2">
+        <f t="shared" si="5"/>
         <v>8.9144311702239349</v>
       </c>
-      <c r="P27" s="2">
-        <f t="shared" si="9"/>
+      <c r="T27" s="2">
+        <f t="shared" si="10"/>
         <v>67.599999999999994</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="U27" s="2">
         <v>11.9</v>
       </c>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="U27">
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="Y27">
         <v>40</v>
       </c>
-      <c r="V27">
+      <c r="Z27">
         <v>696</v>
       </c>
-      <c r="Z27">
+      <c r="AD27">
         <v>16.899999999999999</v>
       </c>
-      <c r="AC27">
+      <c r="AG27">
         <v>50</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AH27" s="2">
         <v>11.1</v>
       </c>
-      <c r="AE27" s="2">
+      <c r="AI27" s="2">
         <v>19.399999999999999</v>
       </c>
-      <c r="AF27" s="2">
+      <c r="AJ27" s="2">
         <v>18.7</v>
       </c>
-      <c r="AG27" s="2">
+      <c r="AK27" s="2">
         <v>8.74</v>
       </c>
-      <c r="AH27" s="2">
-        <f t="shared" si="10"/>
+      <c r="AL27" s="2">
+        <f t="shared" si="11"/>
         <v>4.6190476190476186</v>
       </c>
-      <c r="AI27" s="2">
+      <c r="AM27" s="2">
         <v>11.9</v>
       </c>
-      <c r="AK27" s="2">
+      <c r="AO27" s="2">
         <v>19.399999999999999</v>
       </c>
-      <c r="AL27" s="2">
+      <c r="AP27" s="2">
         <v>29.2</v>
       </c>
-      <c r="AM27" s="2">
+      <c r="AQ27" s="2">
         <v>23.3</v>
       </c>
-      <c r="AN27" s="2">
+      <c r="AR27" s="2">
         <v>8.6199999999999992</v>
       </c>
-      <c r="AP27">
+      <c r="AT27">
         <v>16.8</v>
       </c>
-      <c r="AQ27">
+      <c r="AU27">
+        <f t="shared" si="7"/>
+        <v>1.1547619047619047</v>
+      </c>
+      <c r="AW27">
         <f t="shared" si="6"/>
-        <v>1.1547619047619047</v>
-      </c>
-      <c r="AS27">
-        <f t="shared" si="5"/>
         <v>1.0139211136890953</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>55</v>
       </c>
@@ -11974,95 +12116,101 @@
       <c r="F28" s="2">
         <v>12.7</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="3">
+        <v>8.1509999999999998</v>
+      </c>
+      <c r="H28" s="2">
         <v>11.9</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="3">
+        <v>18.77</v>
+      </c>
+      <c r="J28" s="2">
         <v>21.4</v>
       </c>
-      <c r="I28" s="2">
+      <c r="K28" s="2">
         <v>1.59</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2">
-        <f t="shared" si="1"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="2">
+        <f t="shared" si="2"/>
         <v>21.739853938483463</v>
       </c>
-      <c r="M28" s="2">
-        <f t="shared" si="2"/>
+      <c r="Q28" s="2">
+        <f t="shared" si="3"/>
         <v>32.575937571003941</v>
       </c>
-      <c r="N28" s="2">
-        <f t="shared" si="3"/>
+      <c r="R28" s="2">
+        <f t="shared" si="4"/>
         <v>25.853918707145983</v>
       </c>
-      <c r="O28" s="2">
-        <f t="shared" si="4"/>
+      <c r="S28" s="2">
+        <f t="shared" si="5"/>
         <v>9.4625342468154301</v>
       </c>
-      <c r="P28" s="2">
+      <c r="T28" s="2">
+        <f t="shared" si="10"/>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="U28" s="2">
+        <v>13</v>
+      </c>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="Y28">
+        <v>45</v>
+      </c>
+      <c r="Z28">
+        <v>776</v>
+      </c>
+      <c r="AD28">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AG28">
+        <v>55</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ28" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AK28" s="2">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="AL28" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AM28" s="2">
+        <v>13</v>
+      </c>
+      <c r="AO28">
         <f t="shared" si="9"/>
-        <v>73.599999999999994</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>13</v>
-      </c>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="U28">
-        <v>45</v>
-      </c>
-      <c r="V28">
-        <v>776</v>
-      </c>
-      <c r="Z28">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="AC28">
-        <v>55</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="AE28" s="2">
-        <v>21</v>
-      </c>
-      <c r="AF28" s="2">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="AG28" s="2">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="AH28" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="2">
-        <v>13</v>
-      </c>
-      <c r="AK28">
-        <f t="shared" si="8"/>
         <v>21.021817025821505</v>
       </c>
-      <c r="AL28" s="2">
+      <c r="AP28" s="2">
         <v>31.5</v>
       </c>
-      <c r="AM28" s="2">
+      <c r="AQ28" s="2">
         <v>25</v>
       </c>
-      <c r="AN28" s="2">
+      <c r="AR28" s="2">
         <v>9.15</v>
       </c>
-      <c r="AP28">
+      <c r="AT28">
         <v>18.2</v>
       </c>
-      <c r="AS28">
-        <f t="shared" si="5"/>
+      <c r="AW28">
+        <f t="shared" si="6"/>
         <v>1.014207650273224</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>60</v>
       </c>
@@ -12081,102 +12229,108 @@
       <c r="F29" s="2">
         <v>13.7</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="3">
+        <v>8.8309999999999995</v>
+      </c>
+      <c r="H29" s="2">
         <v>12.8</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="3">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="J29" s="2">
         <v>22.5</v>
       </c>
-      <c r="I29" s="2">
+      <c r="K29" s="2">
         <v>1.7</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2">
-        <f t="shared" si="1"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="2">
+        <f t="shared" si="2"/>
         <v>23.292700648375138</v>
       </c>
-      <c r="M29" s="2">
-        <f t="shared" si="2"/>
+      <c r="Q29" s="2">
+        <f t="shared" si="3"/>
         <v>34.644251067575617</v>
       </c>
-      <c r="N29" s="2">
-        <f t="shared" si="3"/>
+      <c r="R29" s="2">
+        <f t="shared" si="4"/>
         <v>27.405153829574743</v>
       </c>
-      <c r="O29" s="2">
-        <f t="shared" si="4"/>
+      <c r="S29" s="2">
+        <f t="shared" si="5"/>
         <v>9.9485879185097748</v>
       </c>
-      <c r="P29" s="2">
+      <c r="T29" s="2">
+        <f t="shared" si="10"/>
+        <v>79.2</v>
+      </c>
+      <c r="U29" s="2">
+        <v>14</v>
+      </c>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="Y29">
+        <v>50</v>
+      </c>
+      <c r="Z29">
+        <v>853</v>
+      </c>
+      <c r="AA29">
+        <v>3.59</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="8"/>
+        <v>487.90484739676839</v>
+      </c>
+      <c r="AD29">
+        <v>19.8</v>
+      </c>
+      <c r="AG29">
+        <v>60</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="AJ29" s="2">
+        <v>21.3</v>
+      </c>
+      <c r="AK29" s="2">
+        <v>9.76</v>
+      </c>
+      <c r="AL29" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AM29" s="2">
+        <v>14</v>
+      </c>
+      <c r="AO29">
         <f t="shared" si="9"/>
-        <v>79.2</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>14</v>
-      </c>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="U29">
-        <v>50</v>
-      </c>
-      <c r="V29">
-        <v>853</v>
-      </c>
-      <c r="W29">
-        <v>3.59</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="7"/>
-        <v>487.90484739676839</v>
-      </c>
-      <c r="Z29">
-        <v>19.8</v>
-      </c>
-      <c r="AC29">
-        <v>60</v>
-      </c>
-      <c r="AD29" s="2">
-        <v>12.9</v>
-      </c>
-      <c r="AE29" s="2">
-        <v>22.4</v>
-      </c>
-      <c r="AF29" s="2">
-        <v>21.3</v>
-      </c>
-      <c r="AG29" s="2">
-        <v>9.76</v>
-      </c>
-      <c r="AH29" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI29" s="2">
-        <v>14</v>
-      </c>
-      <c r="AK29">
-        <f t="shared" si="8"/>
         <v>22.523375384808755</v>
       </c>
-      <c r="AL29" s="2">
+      <c r="AP29" s="2">
         <v>33.5</v>
       </c>
-      <c r="AM29" s="2">
+      <c r="AQ29" s="2">
         <v>26.5</v>
       </c>
-      <c r="AN29" s="2">
+      <c r="AR29" s="2">
         <v>9.6199999999999992</v>
       </c>
-      <c r="AP29">
+      <c r="AT29">
         <v>19.5</v>
       </c>
-      <c r="AS29">
-        <f t="shared" si="5"/>
+      <c r="AW29">
+        <f t="shared" si="6"/>
         <v>1.0145530145530146</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>65</v>
       </c>
@@ -12195,95 +12349,101 @@
       <c r="F30" s="2">
         <v>14.8</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="3">
+        <v>9.5440000000000005</v>
+      </c>
+      <c r="H30" s="2">
         <v>13.8</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="3">
+        <v>21.34</v>
+      </c>
+      <c r="J30" s="2">
         <v>23.8</v>
       </c>
-      <c r="I30" s="2">
+      <c r="K30" s="2">
         <v>1.82</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2">
-        <f t="shared" si="1"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="2">
+        <f t="shared" si="2"/>
         <v>24.845547358266817</v>
       </c>
-      <c r="M30" s="2">
-        <f t="shared" si="2"/>
+      <c r="Q30" s="2">
+        <f t="shared" si="3"/>
         <v>36.815980238975882</v>
       </c>
-      <c r="N30" s="2">
-        <f t="shared" si="3"/>
+      <c r="R30" s="2">
+        <f t="shared" si="4"/>
         <v>29.059804626832086</v>
       </c>
-      <c r="O30" s="2">
-        <f t="shared" si="4"/>
+      <c r="S30" s="2">
+        <f t="shared" si="5"/>
         <v>10.444983157686977</v>
       </c>
-      <c r="P30" s="2">
+      <c r="T30" s="2">
+        <f t="shared" si="10"/>
+        <v>85.2</v>
+      </c>
+      <c r="U30" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="Y30">
+        <v>55</v>
+      </c>
+      <c r="Z30">
+        <v>928</v>
+      </c>
+      <c r="AD30">
+        <v>21.3</v>
+      </c>
+      <c r="AG30">
+        <v>65</v>
+      </c>
+      <c r="AH30" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="AJ30" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="AK30" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="AL30" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AM30" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="AO30">
         <f t="shared" si="9"/>
-        <v>85.2</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>15.2</v>
-      </c>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="U30">
-        <v>55</v>
-      </c>
-      <c r="V30">
-        <v>928</v>
-      </c>
-      <c r="Z30">
-        <v>21.3</v>
-      </c>
-      <c r="AC30">
-        <v>65</v>
-      </c>
-      <c r="AD30" s="2">
-        <v>13.8</v>
-      </c>
-      <c r="AE30" s="2">
-        <v>23.9</v>
-      </c>
-      <c r="AF30" s="2">
-        <v>22.5</v>
-      </c>
-      <c r="AG30" s="2">
-        <v>10.3</v>
-      </c>
-      <c r="AH30" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI30" s="2">
-        <v>15.2</v>
-      </c>
-      <c r="AK30">
-        <f t="shared" si="8"/>
         <v>24.024933743796009</v>
       </c>
-      <c r="AL30" s="2">
+      <c r="AP30" s="2">
         <v>35.6</v>
       </c>
-      <c r="AM30" s="2">
+      <c r="AQ30" s="2">
         <v>28.1</v>
       </c>
-      <c r="AN30" s="2">
+      <c r="AR30" s="2">
         <v>10.1</v>
       </c>
-      <c r="AP30">
+      <c r="AT30">
         <v>20.8</v>
       </c>
-      <c r="AS30">
-        <f t="shared" si="5"/>
+      <c r="AW30">
+        <f t="shared" si="6"/>
         <v>1.0198019801980198</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>70</v>
       </c>
@@ -12302,95 +12462,101 @@
       <c r="F31" s="2">
         <v>15.8</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="3">
+        <v>10.23</v>
+      </c>
+      <c r="H31" s="2">
         <v>14.9</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="3">
+        <v>22.62</v>
+      </c>
+      <c r="J31" s="2">
         <v>25</v>
       </c>
-      <c r="I31" s="2">
+      <c r="K31" s="2">
         <v>1.94</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2">
-        <f t="shared" si="1"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="2">
+        <f t="shared" si="2"/>
         <v>26.398394068158492</v>
       </c>
-      <c r="M31" s="2">
-        <f t="shared" si="2"/>
+      <c r="Q31" s="2">
+        <f t="shared" si="3"/>
         <v>38.884293735547558</v>
       </c>
-      <c r="N31" s="2">
-        <f t="shared" si="3"/>
+      <c r="R31" s="2">
+        <f t="shared" si="4"/>
         <v>30.611039749260847</v>
       </c>
-      <c r="O31" s="2">
-        <f t="shared" si="4"/>
+      <c r="S31" s="2">
+        <f t="shared" si="5"/>
         <v>10.858645857001314</v>
       </c>
-      <c r="P31" s="2">
+      <c r="T31" s="2">
+        <f t="shared" si="10"/>
+        <v>90.8</v>
+      </c>
+      <c r="U31" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="Y31">
+        <v>60</v>
+      </c>
+      <c r="Z31">
+        <v>995</v>
+      </c>
+      <c r="AD31">
+        <v>22.7</v>
+      </c>
+      <c r="AG31">
+        <v>70</v>
+      </c>
+      <c r="AH31" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="AJ31" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="AL31" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="AO31">
         <f t="shared" si="9"/>
-        <v>90.8</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>16.2</v>
-      </c>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="U31">
-        <v>60</v>
-      </c>
-      <c r="V31">
-        <v>995</v>
-      </c>
-      <c r="Z31">
-        <v>22.7</v>
-      </c>
-      <c r="AC31">
-        <v>70</v>
-      </c>
-      <c r="AD31" s="2">
-        <v>14.7</v>
-      </c>
-      <c r="AE31" s="2">
-        <v>25.3</v>
-      </c>
-      <c r="AF31" s="2">
-        <v>23.6</v>
-      </c>
-      <c r="AG31" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="AH31" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI31" s="2">
-        <v>16.2</v>
-      </c>
-      <c r="AK31">
-        <f t="shared" si="8"/>
         <v>25.526492102783259</v>
       </c>
-      <c r="AL31" s="2">
+      <c r="AP31" s="2">
         <v>37.6</v>
       </c>
-      <c r="AM31" s="2">
+      <c r="AQ31" s="2">
         <v>29.6</v>
       </c>
-      <c r="AN31" s="2">
+      <c r="AR31" s="2">
         <v>10.5</v>
       </c>
-      <c r="AP31">
+      <c r="AT31">
         <v>22.1</v>
       </c>
-      <c r="AS31">
-        <f t="shared" si="5"/>
+      <c r="AW31">
+        <f t="shared" si="6"/>
         <v>1.019047619047619</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>75</v>
       </c>
@@ -12409,98 +12575,104 @@
       <c r="F32" s="2">
         <v>16.8</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="3">
+        <v>10.93</v>
+      </c>
+      <c r="H32" s="2">
         <v>15.8</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="3">
+        <v>23.84</v>
+      </c>
+      <c r="J32" s="2">
         <v>26.1</v>
       </c>
-      <c r="I32" s="2">
+      <c r="K32" s="2">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2">
-        <f t="shared" si="1"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="2">
+        <f t="shared" si="2"/>
         <v>27.922232203717662</v>
       </c>
-      <c r="M32" s="2">
-        <f t="shared" si="2"/>
+      <c r="Q32" s="2">
+        <f t="shared" si="3"/>
         <v>40.849191557290652</v>
       </c>
-      <c r="N32" s="2">
-        <f t="shared" si="3"/>
+      <c r="R32" s="2">
+        <f t="shared" si="4"/>
         <v>32.058859196861022</v>
       </c>
-      <c r="O32" s="2">
-        <f t="shared" si="4"/>
+      <c r="S32" s="2">
+        <f t="shared" si="5"/>
         <v>11.375724231144233</v>
       </c>
-      <c r="P32" s="2">
-        <f t="shared" si="9"/>
+      <c r="T32" s="2">
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="U32" s="2">
         <v>17.100000000000001</v>
       </c>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="U32">
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="Y32">
         <v>65</v>
       </c>
-      <c r="V32">
+      <c r="Z32">
         <v>1070</v>
       </c>
-      <c r="Z32">
+      <c r="AD32">
         <v>24</v>
       </c>
-      <c r="AC32">
+      <c r="AG32">
         <v>75</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AH32" s="2">
         <v>15.5</v>
       </c>
-      <c r="AE32" s="2">
+      <c r="AI32" s="2">
         <v>26.7</v>
       </c>
-      <c r="AF32" s="2">
+      <c r="AJ32" s="2">
         <v>24.7</v>
       </c>
-      <c r="AG32" s="2">
+      <c r="AK32" s="2">
         <v>11.1</v>
       </c>
-      <c r="AH32" s="2">
-        <f t="shared" si="10"/>
+      <c r="AL32" s="2">
+        <f t="shared" si="11"/>
         <v>4.6351931330472098</v>
       </c>
-      <c r="AI32" s="2">
+      <c r="AM32" s="2">
         <v>17.100000000000001</v>
       </c>
-      <c r="AK32" s="2">
+      <c r="AO32" s="2">
         <v>27</v>
       </c>
-      <c r="AL32" s="2">
+      <c r="AP32" s="2">
         <v>39.5</v>
       </c>
-      <c r="AM32" s="2">
+      <c r="AQ32" s="2">
         <v>31</v>
       </c>
-      <c r="AN32" s="2">
+      <c r="AR32" s="2">
         <v>11</v>
       </c>
-      <c r="AP32">
+      <c r="AT32">
         <v>23.3</v>
       </c>
-      <c r="AQ32">
+      <c r="AU32">
+        <f t="shared" si="7"/>
+        <v>1.1587982832618025</v>
+      </c>
+      <c r="AW32">
         <f t="shared" si="6"/>
-        <v>1.1587982832618025</v>
-      </c>
-      <c r="AS32">
-        <f t="shared" si="5"/>
         <v>1.009090909090909</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>80</v>
       </c>
@@ -12519,95 +12691,101 @@
       <c r="F33" s="2">
         <v>17.8</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="3">
+        <v>11.53</v>
+      </c>
+      <c r="H33" s="2">
         <v>16.5</v>
       </c>
-      <c r="H33" s="2">
+      <c r="I33" s="3">
+        <v>24.88</v>
+      </c>
+      <c r="J33" s="2">
         <v>27.1</v>
       </c>
-      <c r="I33" s="2">
+      <c r="K33" s="2">
         <v>2.14</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2">
-        <f t="shared" si="1"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="2">
+        <f t="shared" si="2"/>
         <v>29.14573824719761</v>
       </c>
-      <c r="M33" s="2">
-        <f t="shared" si="2"/>
+      <c r="Q33" s="2">
+        <f t="shared" si="3"/>
         <v>42.607258029376588</v>
       </c>
-      <c r="N33" s="2">
-        <f t="shared" si="3"/>
+      <c r="R33" s="2">
+        <f t="shared" si="4"/>
         <v>33.299847294804032</v>
       </c>
-      <c r="O33" s="2">
-        <f t="shared" si="4"/>
+      <c r="S33" s="2">
+        <f t="shared" si="5"/>
         <v>11.789386930458569</v>
       </c>
-      <c r="P33" s="2">
-        <f t="shared" si="9"/>
+      <c r="T33" s="2">
+        <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="U33" s="2">
         <v>18</v>
       </c>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="U33">
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="Y33">
         <v>70</v>
       </c>
-      <c r="V33">
+      <c r="Z33">
         <v>1140</v>
       </c>
-      <c r="Z33">
+      <c r="AD33">
         <v>25.2</v>
       </c>
-      <c r="AC33">
+      <c r="AG33">
         <v>80</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AH33" s="2">
         <v>16.3</v>
       </c>
-      <c r="AE33" s="2">
+      <c r="AI33" s="2">
         <v>27.9</v>
       </c>
-      <c r="AF33" s="2">
+      <c r="AJ33" s="2">
         <v>25.6</v>
       </c>
-      <c r="AG33" s="2">
+      <c r="AK33" s="2">
         <v>11.5</v>
       </c>
-      <c r="AH33" s="2">
-        <f t="shared" si="10"/>
+      <c r="AL33" s="2">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI33" s="2">
+      <c r="AM33" s="2">
         <v>18</v>
       </c>
-      <c r="AK33">
-        <f t="shared" ref="AK33:AK36" si="11">AP33*$AQ$12</f>
+      <c r="AO33">
+        <f t="shared" ref="AO33:AO36" si="12">AT33*$AU$12</f>
         <v>28.183095353299162</v>
       </c>
-      <c r="AL33" s="2">
+      <c r="AP33" s="2">
         <v>41.2</v>
       </c>
-      <c r="AM33" s="2">
+      <c r="AQ33" s="2">
         <v>32.200000000000003</v>
       </c>
-      <c r="AN33" s="2">
+      <c r="AR33" s="2">
         <v>11.4</v>
       </c>
-      <c r="AP33">
+      <c r="AT33">
         <v>24.4</v>
       </c>
-      <c r="AS33">
-        <f t="shared" si="5"/>
+      <c r="AW33">
+        <f t="shared" si="6"/>
         <v>1.0087719298245614</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>85</v>
       </c>
@@ -12626,102 +12804,108 @@
       <c r="F34" s="2">
         <v>18.7</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="3">
+        <v>12.18</v>
+      </c>
+      <c r="H34" s="2">
         <v>17.399999999999999</v>
       </c>
-      <c r="H34" s="2">
+      <c r="I34" s="3">
+        <v>26.09</v>
+      </c>
+      <c r="J34" s="2">
         <v>28.1</v>
       </c>
-      <c r="I34" s="2">
+      <c r="K34" s="2">
         <v>2.2400000000000002</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2">
-        <f t="shared" si="1"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="2">
+        <f t="shared" si="2"/>
         <v>30.579135210174545</v>
       </c>
-      <c r="M34" s="2">
-        <f t="shared" si="2"/>
+      <c r="Q34" s="2">
+        <f t="shared" si="3"/>
         <v>44.36532450146251</v>
       </c>
-      <c r="N34" s="2">
-        <f t="shared" si="3"/>
+      <c r="R34" s="2">
+        <f t="shared" si="4"/>
         <v>34.644251067575617</v>
       </c>
-      <c r="O34" s="2">
-        <f t="shared" si="4"/>
+      <c r="S34" s="2">
+        <f t="shared" si="5"/>
         <v>12.203049629772906</v>
       </c>
-      <c r="P34" s="2">
-        <f t="shared" si="9"/>
+      <c r="T34" s="2">
+        <f t="shared" si="10"/>
         <v>106</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="U34" s="2">
         <v>18.8</v>
       </c>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="U34">
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="Y34">
         <v>75</v>
       </c>
-      <c r="V34">
+      <c r="Z34">
         <v>1210</v>
       </c>
-      <c r="W34">
+      <c r="AA34">
         <v>4.66</v>
       </c>
-      <c r="X34">
-        <f t="shared" si="7"/>
+      <c r="AB34">
+        <f t="shared" si="8"/>
         <v>633.32495511669663</v>
       </c>
-      <c r="Z34">
+      <c r="AD34">
         <v>26.5</v>
       </c>
-      <c r="AC34">
+      <c r="AG34">
         <v>85</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AH34" s="2">
         <v>17.100000000000001</v>
       </c>
-      <c r="AE34" s="2">
+      <c r="AI34" s="2">
         <v>29.1</v>
       </c>
-      <c r="AF34" s="2">
+      <c r="AJ34" s="2">
         <v>26.6</v>
       </c>
-      <c r="AG34" s="2">
+      <c r="AK34" s="2">
         <v>11.9</v>
       </c>
-      <c r="AH34" s="2">
-        <f t="shared" si="10"/>
+      <c r="AL34" s="2">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI34" s="2">
+      <c r="AM34" s="2">
         <v>18.8</v>
       </c>
-      <c r="AK34">
-        <f t="shared" si="11"/>
+      <c r="AO34">
+        <f t="shared" si="12"/>
         <v>29.56914922313355</v>
       </c>
-      <c r="AL34" s="2">
+      <c r="AP34" s="2">
         <v>42.9</v>
       </c>
-      <c r="AM34" s="2">
+      <c r="AQ34" s="2">
         <v>33.5</v>
       </c>
-      <c r="AN34" s="2">
+      <c r="AR34" s="2">
         <v>11.8</v>
       </c>
-      <c r="AP34">
+      <c r="AT34">
         <v>25.6</v>
       </c>
-      <c r="AS34">
-        <f t="shared" si="5"/>
+      <c r="AW34">
+        <f t="shared" si="6"/>
         <v>1.0084745762711864</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>90</v>
       </c>
@@ -12740,95 +12924,101 @@
       <c r="F35" s="2">
         <v>19.7</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="3">
+        <v>12.82</v>
+      </c>
+      <c r="H35" s="2">
         <v>18.2</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="3">
+        <v>27.15</v>
+      </c>
+      <c r="J35" s="2">
         <v>29.1</v>
       </c>
-      <c r="I35" s="2">
+      <c r="K35" s="2">
         <v>2.34</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2">
-        <f t="shared" si="1"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="2">
+        <f t="shared" si="2"/>
         <v>31.893082426236727</v>
       </c>
-      <c r="M35" s="2">
-        <f t="shared" si="2"/>
+      <c r="Q35" s="2">
+        <f t="shared" si="3"/>
         <v>46.123390973548439</v>
       </c>
-      <c r="N35" s="2">
-        <f t="shared" si="3"/>
+      <c r="R35" s="2">
+        <f t="shared" si="4"/>
         <v>35.885239165518627</v>
       </c>
-      <c r="O35" s="2">
-        <f t="shared" si="4"/>
+      <c r="S35" s="2">
+        <f t="shared" si="5"/>
         <v>12.513296654258657</v>
       </c>
-      <c r="P35" s="2">
-        <f t="shared" si="9"/>
+      <c r="T35" s="2">
+        <f t="shared" si="10"/>
         <v>111.2</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="U35" s="2">
         <v>19.7</v>
       </c>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="U35">
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="Y35">
         <v>80</v>
       </c>
-      <c r="V35">
+      <c r="Z35">
         <v>1270</v>
       </c>
-      <c r="Z35">
+      <c r="AD35">
         <v>27.8</v>
       </c>
-      <c r="AC35">
+      <c r="AG35">
         <v>90</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AH35" s="2">
         <v>17.8</v>
       </c>
-      <c r="AE35" s="2">
+      <c r="AI35" s="2">
         <v>30.4</v>
       </c>
-      <c r="AF35" s="2">
+      <c r="AJ35" s="2">
         <v>27.5</v>
       </c>
-      <c r="AG35" s="2">
+      <c r="AK35" s="2">
         <v>12.3</v>
       </c>
-      <c r="AH35" s="2">
-        <f t="shared" si="10"/>
+      <c r="AL35" s="2">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI35" s="2">
+      <c r="AM35" s="2">
         <v>19.7</v>
       </c>
-      <c r="AK35">
-        <f t="shared" si="11"/>
+      <c r="AO35">
+        <f t="shared" si="12"/>
         <v>30.839698603815066</v>
       </c>
-      <c r="AL35" s="2">
+      <c r="AP35" s="2">
         <v>44.6</v>
       </c>
-      <c r="AM35" s="2">
+      <c r="AQ35" s="2">
         <v>34.700000000000003</v>
       </c>
-      <c r="AN35" s="2">
+      <c r="AR35" s="2">
         <v>12.1</v>
       </c>
-      <c r="AP35">
+      <c r="AT35">
         <v>26.7</v>
       </c>
-      <c r="AS35">
-        <f t="shared" si="5"/>
+      <c r="AW35">
+        <f t="shared" si="6"/>
         <v>1.0165289256198349</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>95</v>
       </c>
@@ -12847,95 +13037,101 @@
       <c r="F36" s="2">
         <v>20.7</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="3">
+        <v>13.42</v>
+      </c>
+      <c r="H36" s="2">
         <v>18.899999999999999</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="3">
+        <v>28.17</v>
+      </c>
+      <c r="J36" s="2">
         <v>30</v>
       </c>
-      <c r="I36" s="2">
+      <c r="K36" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2">
-        <f t="shared" si="1"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="2">
+        <f t="shared" si="2"/>
         <v>33.20702964229892</v>
       </c>
-      <c r="M36" s="2">
-        <f t="shared" si="2"/>
+      <c r="Q36" s="2">
+        <f t="shared" si="3"/>
         <v>47.778041770805778</v>
       </c>
-      <c r="N36" s="2">
-        <f t="shared" si="3"/>
+      <c r="R36" s="2">
+        <f t="shared" si="4"/>
         <v>37.022811588633047</v>
       </c>
-      <c r="O36" s="2">
-        <f t="shared" si="4"/>
+      <c r="S36" s="2">
+        <f t="shared" si="5"/>
         <v>12.926959353572991</v>
       </c>
-      <c r="P36" s="2">
-        <f t="shared" si="9"/>
+      <c r="T36" s="2">
+        <f t="shared" si="10"/>
         <v>116</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="U36" s="2">
         <v>20.399999999999999</v>
       </c>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="U36">
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="Y36">
         <v>85</v>
       </c>
-      <c r="V36">
+      <c r="Z36">
         <v>1330</v>
       </c>
-      <c r="Z36">
+      <c r="AD36">
         <v>29</v>
       </c>
-      <c r="AC36">
+      <c r="AG36">
         <v>95</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AH36" s="2">
         <v>18.600000000000001</v>
       </c>
-      <c r="AE36" s="2">
+      <c r="AI36" s="2">
         <v>31.6</v>
       </c>
-      <c r="AF36" s="2">
+      <c r="AJ36" s="2">
         <v>28.4</v>
       </c>
-      <c r="AG36" s="2">
+      <c r="AK36" s="2">
         <v>12.7</v>
       </c>
-      <c r="AH36" s="2">
-        <f t="shared" si="10"/>
+      <c r="AL36" s="2">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI36" s="2">
+      <c r="AM36" s="2">
         <v>20.399999999999999</v>
       </c>
-      <c r="AK36">
-        <f t="shared" si="11"/>
+      <c r="AO36">
+        <f t="shared" si="12"/>
         <v>32.110247984496588</v>
       </c>
-      <c r="AL36" s="2">
+      <c r="AP36" s="2">
         <v>46.2</v>
       </c>
-      <c r="AM36" s="2">
+      <c r="AQ36" s="2">
         <v>35.799999999999997</v>
       </c>
-      <c r="AN36" s="2">
+      <c r="AR36" s="2">
         <v>12.5</v>
       </c>
-      <c r="AP36">
+      <c r="AT36">
         <v>27.8</v>
       </c>
-      <c r="AS36">
-        <f t="shared" si="5"/>
+      <c r="AW36">
+        <f t="shared" si="6"/>
         <v>1.016</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>100</v>
       </c>
@@ -12954,117 +13150,123 @@
       <c r="F37" s="2">
         <v>21.4</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="3">
+        <v>13.92</v>
+      </c>
+      <c r="H37" s="2">
         <v>19.600000000000001</v>
       </c>
-      <c r="H37" s="2">
+      <c r="I37" s="3">
+        <v>29.06</v>
+      </c>
+      <c r="J37" s="2">
         <v>30.9</v>
       </c>
-      <c r="I37" s="2">
+      <c r="K37" s="2">
         <v>2.52</v>
       </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2">
-        <f t="shared" si="1"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="2">
+        <f t="shared" si="2"/>
         <v>34.540835392747034</v>
       </c>
-      <c r="M37" s="2">
-        <f t="shared" si="2"/>
+      <c r="Q37" s="2">
+        <f t="shared" si="3"/>
         <v>49.225861218405953</v>
       </c>
-      <c r="N37" s="2">
-        <f t="shared" si="3"/>
+      <c r="R37" s="2">
+        <f t="shared" si="4"/>
         <v>38.056968336918885</v>
       </c>
-      <c r="O37" s="2">
-        <f t="shared" si="4"/>
+      <c r="S37" s="2">
+        <f t="shared" si="5"/>
         <v>13.237206378058744</v>
       </c>
-      <c r="P37" s="2">
-        <f t="shared" si="9"/>
+      <c r="T37" s="2">
+        <f t="shared" si="10"/>
         <v>119.6</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="U37" s="2">
         <v>21.1</v>
       </c>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="U37">
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="Y37">
         <v>90</v>
       </c>
-      <c r="V37">
+      <c r="Z37">
         <v>1390</v>
       </c>
-      <c r="Z37">
+      <c r="AD37">
         <v>29.9</v>
       </c>
-      <c r="AC37">
+      <c r="AG37">
         <v>100</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AH37" s="2">
         <v>19.3</v>
       </c>
-      <c r="AE37" s="2">
+      <c r="AI37" s="2">
         <v>32.6</v>
       </c>
-      <c r="AF37" s="2">
+      <c r="AJ37" s="2">
         <v>29.2</v>
       </c>
-      <c r="AG37" s="2">
+      <c r="AK37" s="2">
         <v>13</v>
       </c>
-      <c r="AH37" s="2">
-        <f t="shared" si="10"/>
+      <c r="AL37" s="2">
+        <f t="shared" si="11"/>
         <v>4.6388888888888884</v>
       </c>
-      <c r="AI37" s="2">
+      <c r="AM37" s="2">
         <v>21.1</v>
       </c>
-      <c r="AK37" s="2">
+      <c r="AO37" s="2">
         <v>33.4</v>
       </c>
-      <c r="AL37" s="2">
+      <c r="AP37" s="2">
         <v>47.6</v>
       </c>
-      <c r="AM37" s="2">
+      <c r="AQ37" s="2">
         <v>36.799999999999997</v>
       </c>
-      <c r="AN37" s="2">
+      <c r="AR37" s="2">
         <v>12.8</v>
       </c>
-      <c r="AP37">
+      <c r="AT37">
         <v>28.8</v>
       </c>
-      <c r="AQ37">
+      <c r="AU37">
+        <f t="shared" si="7"/>
+        <v>1.1597222222222221</v>
+      </c>
+      <c r="AW37">
         <f t="shared" si="6"/>
-        <v>1.1597222222222221</v>
-      </c>
-      <c r="AS37">
-        <f t="shared" si="5"/>
         <v>1.015625</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="U38">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="Y38">
         <v>95</v>
       </c>
-      <c r="V38">
+      <c r="Z38">
         <v>1450</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="U39">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="Y39">
         <v>100</v>
       </c>
-      <c r="V39">
+      <c r="Z39">
         <v>1500</v>
       </c>
-      <c r="W39">
+      <c r="AA39">
         <v>5.51</v>
       </c>
-      <c r="X39">
-        <f t="shared" si="7"/>
+      <c r="AB39">
+        <f t="shared" si="8"/>
         <v>748.84560143626561</v>
       </c>
     </row>
